--- a/data/Cañete.xlsx
+++ b/data/Cañete.xlsx
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>EMPRESA ELECTRICA DE LA FRONTERA S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F14" t="n">

--- a/data/Cañete.xlsx
+++ b/data/Cañete.xlsx
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">

--- a/data/Cañete.xlsx
+++ b/data/Cañete.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS QUÍMICAS Y RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Transportes Bretti Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9903</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>24/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160297313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos Cantera Piedra Dura, Cañete</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,30 +482,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Áridos Piedra Dura Ltda</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>800</v>
+        <v>9903</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08/11/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132851391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos Pozo Piedra Dura, Cañete</t>
+          <t>Extracción y Procesamiento de Áridos Cantera Piedra Dura, Cañete</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>09/08/2017</t>
+          <t>08/11/2017</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132591886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132851391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>28/06/2017</t>
+          <t>09/08/2017</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132497922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132591886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Regularización de Grupos Electrógenos Central Cañete .</t>
+          <t>Extracción y Procesamiento de Áridos Pozo Piedra Dura, Cañete</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SAGESA S.A.</t>
+          <t>Áridos Piedra Dura Ltda</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1186</v>
+        <v>800</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>13/12/2012</t>
+          <t>28/06/2017</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7632908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132497922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización de Grupos Electrógenos Central Cañete .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>SAGESA S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>1186</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>13/12/2012</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7632908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Central Hidroeléctrica Butamalal</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>RP Butamalal Hidroeléctrica S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>28000</v>
+        <v>200</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>30/06/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5756715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Central Hidroeléctrica Butamalal</t>
+          <t>Modificación Proyecto Central Hidroeléctrica Butamalal</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15/06/2011</t>
+          <t>30/06/2011</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5361383&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5756715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Modificación de Proyecto Central Hidroeléctrica Butamalal</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>RP Butamalal Hidroeléctrica S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>200</v>
+        <v>28000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>15/06/2011</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5361383&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 66 kV Tres Pinos - Cañete</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2550</v>
+        <v>200</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>28/01/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Línea de Transmisión 66 kV Tres Pinos - Cañete</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>377</v>
+        <v>2550</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>28/01/2011</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mejoramiento de Planta de Tratamiento de Aguas Servidas de Cañete (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>770</v>
+        <v>377</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>30/06/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3872596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MINI CENTRAL HIDROELÉCTRICA CAYUCUPIL CH-Cayucupil (e-seia)</t>
+          <t>Mejoramiento de Planta de Tratamiento de Aguas Servidas de Cañete (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Cayucupil Ltda</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>12800</v>
+        <v>770</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08/06/2009</t>
+          <t>30/06/2009</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3836721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3872596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MINI CENTRAL HIDROELÉCTRICA CAYUCUPIL CH-Cayucupil (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica Cayucupil Ltda</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>22</v>
+        <v>12800</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>08/06/2009</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3836721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Butamalal, Región del Bío-Bío CH Butamalal (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>RPI Chile Energías Renovables S.A.</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>25000</v>
+        <v>6500</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>24/10/2008</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3292333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Proyecto Central Hidroeléctrica Butamalal, Región del Bío-Bío CHButamalal (e-seia)</t>
+          <t>Central Hidroeléctrica Butamalal, Región del Bío-Bío CH Butamalal (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>24/10/2008</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3255652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3292333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Central Hidroeléctrica Butamalal, Región del Bío-Bío CHButamalal (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>RPI Chile Energías Renovables S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1650</v>
+        <v>25000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3255652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>429</v>
+        <v>1650</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PROYECTO DE EXPLORACIÓN DE GAS NATURAL EN PROVINCIA DE ARAUCO, FASE II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Layne Energía Chile S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>7000</v>
+        <v>300</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>30/05/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>PROYECTO DE EXPLORACIÓN DE GAS NATURAL EN PROVINCIA DE ARAUCO, FASE II (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Layne Energía Chile S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>7000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>30/05/2007</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1787,21 +1787,21 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Plano Regulador Comunal de Cañete (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,12 +2018,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cañete</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>13/10/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1409100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Plano Regulador Comunal de Cañete (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Ilustre Municipalidad de Cañete</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>13/10/2006</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1409100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>855</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>05/04/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Tratamiento de Fuentes Superficiales de Agua Potable de Cañete</t>
+          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,20 +2786,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>24/11/2000</t>
+          <t>05/04/2002</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Camping Inaltu Leubu</t>
+          <t>Mejoramiento del Sistema de Tratamiento de Fuentes Superficiales de Agua Potable de Cañete</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Juan Francisco Lincopi Yevilao</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>16/05/2000</t>
+          <t>24/11/2000</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Construcción Tratamiento de Aguas Servidas de Cañete</t>
+          <t>Camping Inaltu Leubu</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Juan Francisco Lincopi Yevilao</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2490</v>
+        <v>20</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>04/02/2000</t>
+          <t>16/05/2000</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Drenaje Fundo Lautaro II Etapa</t>
+          <t>Construcción Tratamiento de Aguas Servidas de Cañete</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Pacific Flowers S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>70</v>
+        <v>2490</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>03/12/1999</t>
+          <t>04/02/2000</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural de Huentelolén</t>
+          <t>Drenaje Fundo Lautaro II Etapa</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Pacific Flowers S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>310</v>
+        <v>70</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>03/12/1999</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Modificación de Plan Regulador Comunal de Cañete</t>
+          <t>Instalación de Servicio de Agua Potable Rural de Huentelolén</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Cañete</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>19/03/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Loteo 431 Viviendas Sector Poniente Cañete</t>
+          <t>Modificación de Plan Regulador Comunal de Cañete</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Constructora José Miguel García y Cia Ltda.</t>
+          <t>I. Municipalidad de Cañete</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>19/05/1998</t>
+          <t>19/03/1999</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=760&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,43 +3112,91 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>Loteo 431 Viviendas Sector Poniente Cañete</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Constructora José Miguel García y Cia Ltda.</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>19/05/1998</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=760&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Cañete</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
           <t>Mejoramiento del Servicio Administrativo-Recreativo del SNASPE en la Reserva Nacional Isla Mocha</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>Octava</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>Corporación Nacional Forestal, CONAF</t>
         </is>
       </c>
-      <c r="F58" t="n">
+      <c r="F59" t="n">
         <v>60</v>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>26/11/1997</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=253&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>Cañete</t>
         </is>

--- a/data/Cañete.xlsx
+++ b/data/Cañete.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
